--- a/小测_表格.xlsx
+++ b/小测_表格.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyihang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyihang/PycharmProjects/generalMemoryScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E83909-E7AF-EF47-BC99-40342A75AFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FDB8D-D262-3348-AC33-FE7CEABA3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17080" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="17080" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="句子" sheetId="1" r:id="rId1"/>
-    <sheet name="词汇" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="438">
   <si>
     <t>词汇/句子</t>
   </si>
@@ -1685,568 +1684,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B67"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3551,6 +2994,534 @@
         <v>437</v>
       </c>
     </row>
+    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/小测_表格.xlsx
+++ b/小测_表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyihang/PycharmProjects/generalMemoryScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A69289-6AE0-7648-8501-54BD55198C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C983480-1E27-9B4A-9C5A-E017C196F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="17080" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -31,81 +31,42 @@
     <t>您叫什么</t>
   </si>
   <si>
-    <t>stylo</t>
-  </si>
-  <si>
     <t>钢笔</t>
   </si>
   <si>
-    <t>vélo</t>
-  </si>
-  <si>
     <t>自行车</t>
   </si>
   <si>
-    <t>parfum</t>
-  </si>
-  <si>
     <t>香水</t>
   </si>
   <si>
-    <t>livre</t>
-  </si>
-  <si>
     <t>书</t>
   </si>
   <si>
-    <t>drapeau</t>
-  </si>
-  <si>
     <t>旗</t>
   </si>
   <si>
-    <t>papier</t>
-  </si>
-  <si>
     <t>纸</t>
   </si>
   <si>
-    <t>verre</t>
-  </si>
-  <si>
     <t>玻璃杯</t>
   </si>
   <si>
-    <t>jupe</t>
-  </si>
-  <si>
     <t>裙子</t>
   </si>
   <si>
-    <t>guitare</t>
-  </si>
-  <si>
     <t>吉他</t>
   </si>
   <si>
-    <t>voiture</t>
-  </si>
-  <si>
     <t>汽车</t>
   </si>
   <si>
-    <t>revue</t>
-  </si>
-  <si>
     <t>杂志</t>
   </si>
   <si>
-    <t>veste</t>
-  </si>
-  <si>
     <t>上衣</t>
   </si>
   <si>
-    <t>serviette</t>
-  </si>
-  <si>
     <t>毛巾</t>
   </si>
   <si>
@@ -229,147 +190,75 @@
     <t>这些不是</t>
   </si>
   <si>
-    <t>roman</t>
-  </si>
-  <si>
     <t>小说</t>
   </si>
   <si>
-    <t>manuel</t>
-  </si>
-  <si>
     <t>教材</t>
   </si>
   <si>
-    <t>manteau</t>
-  </si>
-  <si>
     <t>大衣</t>
   </si>
   <si>
-    <t>banc</t>
-  </si>
-  <si>
     <t>长条凳</t>
   </si>
   <si>
-    <t>document</t>
-  </si>
-  <si>
     <t>资料</t>
   </si>
   <si>
-    <t>disque</t>
-  </si>
-  <si>
     <t>唱片</t>
   </si>
   <si>
-    <t>peigne</t>
-  </si>
-  <si>
     <t>梳子</t>
   </si>
   <si>
-    <t>lac</t>
-  </si>
-  <si>
     <t>湖泊</t>
   </si>
   <si>
-    <t>pantalon</t>
-  </si>
-  <si>
     <t>裤子</t>
   </si>
   <si>
-    <t>timbre</t>
-  </si>
-  <si>
     <t>邮票</t>
   </si>
   <si>
-    <t>radio</t>
-  </si>
-  <si>
     <t>收音机</t>
   </si>
   <si>
-    <t>robe</t>
-  </si>
-  <si>
     <t>连衣裙</t>
   </si>
   <si>
-    <t>moto</t>
-  </si>
-  <si>
     <t>摩托车</t>
   </si>
   <si>
-    <t>chaise</t>
-  </si>
-  <si>
     <t>椅子</t>
   </si>
   <si>
-    <t>lettre</t>
-  </si>
-  <si>
     <t>信</t>
   </si>
   <si>
-    <t>cassette</t>
-  </si>
-  <si>
     <t>盒式磁带</t>
   </si>
   <si>
-    <t>brosse</t>
-  </si>
-  <si>
     <t>刷子</t>
   </si>
   <si>
-    <t>rivière</t>
-  </si>
-  <si>
     <t>河流</t>
   </si>
   <si>
-    <t>peinture</t>
-  </si>
-  <si>
     <t>画</t>
   </si>
   <si>
-    <t>photo</t>
-  </si>
-  <si>
     <t>照片</t>
   </si>
   <si>
-    <t>chemise</t>
-  </si>
-  <si>
     <t>衬衣</t>
   </si>
   <si>
-    <t>enveloppe</t>
-  </si>
-  <si>
     <t>信封</t>
   </si>
   <si>
-    <t>pomme</t>
-  </si>
-  <si>
     <t>苹果</t>
   </si>
   <si>
-    <t>banane</t>
-  </si>
-  <si>
     <t>香蕉</t>
   </si>
   <si>
@@ -433,75 +322,39 @@
     <t>二十</t>
   </si>
   <si>
-    <t>avocat</t>
-  </si>
-  <si>
     <t>律师</t>
   </si>
   <si>
-    <t>pilote</t>
-  </si>
-  <si>
     <t>飞行员</t>
   </si>
   <si>
-    <t>moniteur</t>
-  </si>
-  <si>
     <t>教练员</t>
   </si>
   <si>
-    <t>professeur</t>
-  </si>
-  <si>
     <t>教师</t>
   </si>
   <si>
-    <t>économiste</t>
-  </si>
-  <si>
     <t>经济学家</t>
   </si>
   <si>
-    <t>cinéaste</t>
-  </si>
-  <si>
     <t>电影编导</t>
   </si>
   <si>
-    <t>monitrice</t>
-  </si>
-  <si>
     <t>女教练员</t>
   </si>
   <si>
-    <t>avocate</t>
-  </si>
-  <si>
     <t>女律师</t>
   </si>
   <si>
-    <t>chimiste</t>
-  </si>
-  <si>
     <t>化学家</t>
   </si>
   <si>
-    <t>secrétaire</t>
-  </si>
-  <si>
     <t>秘书</t>
   </si>
   <si>
-    <t>classe</t>
-  </si>
-  <si>
     <t>教室</t>
   </si>
   <si>
-    <t>chef de classe</t>
-  </si>
-  <si>
     <t>班长</t>
   </si>
   <si>
@@ -950,6 +803,153 @@
   </si>
   <si>
     <t>首都师范大学</t>
+  </si>
+  <si>
+    <t>un stylo</t>
+  </si>
+  <si>
+    <t>un vélo</t>
+  </si>
+  <si>
+    <t>un parfum</t>
+  </si>
+  <si>
+    <t>un livre</t>
+  </si>
+  <si>
+    <t>un drapeau</t>
+  </si>
+  <si>
+    <t>un papier</t>
+  </si>
+  <si>
+    <t>un verre</t>
+  </si>
+  <si>
+    <t>une jupe</t>
+  </si>
+  <si>
+    <t>une guitare</t>
+  </si>
+  <si>
+    <t>une voiture</t>
+  </si>
+  <si>
+    <t>une revue</t>
+  </si>
+  <si>
+    <t>une veste</t>
+  </si>
+  <si>
+    <t>une serviette</t>
+  </si>
+  <si>
+    <t>un roman</t>
+  </si>
+  <si>
+    <t>un manuel</t>
+  </si>
+  <si>
+    <t>un manteau</t>
+  </si>
+  <si>
+    <t>un banc</t>
+  </si>
+  <si>
+    <t>un document</t>
+  </si>
+  <si>
+    <t>un disque</t>
+  </si>
+  <si>
+    <t>un peigne</t>
+  </si>
+  <si>
+    <t>un lac</t>
+  </si>
+  <si>
+    <t>un pantalon</t>
+  </si>
+  <si>
+    <t>un timbre</t>
+  </si>
+  <si>
+    <t>une radio</t>
+  </si>
+  <si>
+    <t>une robe</t>
+  </si>
+  <si>
+    <t>une moto</t>
+  </si>
+  <si>
+    <t>une chaise</t>
+  </si>
+  <si>
+    <t>une lettre</t>
+  </si>
+  <si>
+    <t>une cassette</t>
+  </si>
+  <si>
+    <t>une brosse</t>
+  </si>
+  <si>
+    <t>une rivière</t>
+  </si>
+  <si>
+    <t>une peinture</t>
+  </si>
+  <si>
+    <t>une photo</t>
+  </si>
+  <si>
+    <t>une chemise</t>
+  </si>
+  <si>
+    <t>une enveloppe</t>
+  </si>
+  <si>
+    <t>une pomme</t>
+  </si>
+  <si>
+    <t>une banane</t>
+  </si>
+  <si>
+    <t>un avocat</t>
+  </si>
+  <si>
+    <t>un pilote</t>
+  </si>
+  <si>
+    <t>un moniteur</t>
+  </si>
+  <si>
+    <t>un professeur</t>
+  </si>
+  <si>
+    <t>un économiste</t>
+  </si>
+  <si>
+    <t>un cinéaste</t>
+  </si>
+  <si>
+    <t>une monitrice</t>
+  </si>
+  <si>
+    <t>une avocate</t>
+  </si>
+  <si>
+    <t>un chimiste</t>
+  </si>
+  <si>
+    <t>un secrétaire</t>
+  </si>
+  <si>
+    <t>une classe</t>
+  </si>
+  <si>
+    <t>un chef de classe</t>
   </si>
 </sst>
 </file>
@@ -985,11 +985,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,1129 +1293,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>193</v>
+        <v>144</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>222</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>244</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>246</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>249</v>
+        <v>200</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>250</v>
+        <v>201</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>252</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>256</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>265</v>
+        <v>216</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>266</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>268</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2422,15 +2424,15 @@
         <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2443,170 +2445,170 @@
     </row>
     <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>278</v>
+        <v>229</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>279</v>
+        <v>230</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>280</v>
+        <v>231</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>226</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>286</v>
+        <v>237</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>306</v>
+        <v>257</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/小测_表格.xlsx
+++ b/小测_表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyihang/PycharmProjects/generalMemoryScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C983480-1E27-9B4A-9C5A-E017C196F2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87202A23-DBC4-F64D-8711-78E2D2DFAAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="17080" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -592,63 +592,33 @@
     <t>在里面</t>
   </si>
   <si>
-    <t>21 vingt et un</t>
-  </si>
-  <si>
     <t>二十一</t>
   </si>
   <si>
-    <t>22 vingt deux</t>
-  </si>
-  <si>
     <t>二十二</t>
   </si>
   <si>
-    <t>23 vingt trois</t>
-  </si>
-  <si>
     <t>二十三</t>
   </si>
   <si>
-    <t>24 vingt quatre</t>
-  </si>
-  <si>
     <t>二十四</t>
   </si>
   <si>
-    <t>25 vingt cinq</t>
-  </si>
-  <si>
     <t>二十五</t>
   </si>
   <si>
-    <t>26 vingt six</t>
-  </si>
-  <si>
     <t>二十六</t>
   </si>
   <si>
-    <t>27 vingt sept</t>
-  </si>
-  <si>
     <t>二十七</t>
   </si>
   <si>
-    <t>28 vingt huit</t>
-  </si>
-  <si>
     <t>二十八</t>
   </si>
   <si>
-    <t>29 vingt neuf</t>
-  </si>
-  <si>
     <t>二十九</t>
   </si>
   <si>
-    <t>30 trente</t>
-  </si>
-  <si>
     <t>三十</t>
   </si>
   <si>
@@ -950,6 +920,36 @@
   </si>
   <si>
     <t>un chef de classe</t>
+  </si>
+  <si>
+    <t>vingt et un</t>
+  </si>
+  <si>
+    <t>vingt deux</t>
+  </si>
+  <si>
+    <t>vingt trois</t>
+  </si>
+  <si>
+    <t>vingt quatre</t>
+  </si>
+  <si>
+    <t>vingt cinq</t>
+  </si>
+  <si>
+    <t>vingt six</t>
+  </si>
+  <si>
+    <t>vingt sept</t>
+  </si>
+  <si>
+    <t>vingt huit</t>
+  </si>
+  <si>
+    <t>vingt neuf</t>
+  </si>
+  <si>
+    <t>trente</t>
   </si>
 </sst>
 </file>
@@ -985,12 +985,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,126 +1292,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C163"/>
+  <dimension ref="A1:B163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>261</v>
+      <c r="A1" t="s">
+        <v>251</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>262</v>
+      <c r="A2" t="s">
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>263</v>
+      <c r="A3" t="s">
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>264</v>
+      <c r="A4" t="s">
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>265</v>
+      <c r="A5" t="s">
+        <v>255</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>266</v>
+      <c r="A6" t="s">
+        <v>256</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>267</v>
+      <c r="A7" t="s">
+        <v>257</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>268</v>
+      <c r="A8" t="s">
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>269</v>
+      <c r="A9" t="s">
+        <v>259</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>270</v>
+      <c r="A10" t="s">
+        <v>260</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>271</v>
+      <c r="A11" t="s">
+        <v>261</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>272</v>
+      <c r="A12" t="s">
+        <v>262</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>273</v>
+      <c r="A13" t="s">
+        <v>263</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1420,7 +1418,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1428,7 +1426,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1436,7 +1434,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1444,7 +1442,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1452,7 +1450,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1460,7 +1458,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1468,7 +1466,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1476,7 +1474,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1484,7 +1482,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1492,7 +1490,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1500,7 +1498,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1508,7 +1506,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1516,7 +1514,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1524,7 +1522,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1532,7 +1530,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1540,7 +1538,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1548,7 +1546,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1556,7 +1554,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1564,7 +1562,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1572,199 +1570,199 @@
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>274</v>
+      <c r="A34" t="s">
+        <v>264</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>275</v>
+      <c r="A35" t="s">
+        <v>265</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>276</v>
+      <c r="A36" t="s">
+        <v>266</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>277</v>
+      <c r="A37" t="s">
+        <v>267</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>278</v>
+      <c r="A38" t="s">
+        <v>268</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>279</v>
+      <c r="A39" t="s">
+        <v>269</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>280</v>
+      <c r="A40" t="s">
+        <v>270</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>281</v>
+      <c r="A41" t="s">
+        <v>271</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>282</v>
+      <c r="A42" t="s">
+        <v>272</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>283</v>
+      <c r="A43" t="s">
+        <v>273</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>284</v>
+      <c r="A44" t="s">
+        <v>274</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>285</v>
+      <c r="A45" t="s">
+        <v>275</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>286</v>
+      <c r="A46" t="s">
+        <v>276</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>287</v>
+      <c r="A47" t="s">
+        <v>277</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>288</v>
+      <c r="A48" t="s">
+        <v>278</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>289</v>
+      <c r="A49" t="s">
+        <v>279</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>290</v>
+      <c r="A50" t="s">
+        <v>280</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>291</v>
+      <c r="A51" t="s">
+        <v>281</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>292</v>
+      <c r="A52" t="s">
+        <v>282</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>293</v>
+      <c r="A53" t="s">
+        <v>283</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>294</v>
+      <c r="A54" t="s">
+        <v>284</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>295</v>
+      <c r="A55" t="s">
+        <v>285</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>296</v>
+      <c r="A56" t="s">
+        <v>286</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>297</v>
+      <c r="A57" t="s">
+        <v>287</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1772,7 +1770,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>82</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1780,7 +1778,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>84</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1788,7 +1786,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>86</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1796,7 +1794,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>88</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1804,7 +1802,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>90</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1812,7 +1810,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>92</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1820,7 +1818,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>94</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1828,7 +1826,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>96</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1836,7 +1834,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1844,103 +1842,103 @@
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>298</v>
+      <c r="A68" t="s">
+        <v>288</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>299</v>
+      <c r="A69" t="s">
+        <v>289</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>300</v>
+      <c r="A70" t="s">
+        <v>290</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>301</v>
+      <c r="A71" t="s">
+        <v>291</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>302</v>
+      <c r="A72" t="s">
+        <v>292</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>303</v>
+      <c r="A73" t="s">
+        <v>293</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>304</v>
+      <c r="A74" t="s">
+        <v>294</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>305</v>
+      <c r="A75" t="s">
+        <v>295</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>306</v>
+      <c r="A76" t="s">
+        <v>296</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>307</v>
+      <c r="A77" t="s">
+        <v>297</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>308</v>
+      <c r="A78" t="s">
+        <v>298</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>309</v>
+      <c r="A79" t="s">
+        <v>299</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2301,122 +2299,122 @@
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>208</v>
+        <v>309</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2424,15 +2422,15 @@
         <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="32" x14ac:dyDescent="0.2">
@@ -2445,58 +2443,58 @@
     </row>
     <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2509,15 +2507,15 @@
     </row>
     <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>177</v>
@@ -2525,90 +2523,90 @@
     </row>
     <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
